--- a/medicine/Psychotrope/Koblenzer_Brauerei/Koblenzer_Brauerei.xlsx
+++ b/medicine/Psychotrope/Koblenzer_Brauerei/Koblenzer_Brauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Koblenzer Brauerei est une brasserie à Coblence, dans le Land de Rhénanie-Palatinat.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une première brasserie est fondée en 1689 dans l'Alter Brauhaus dans la vieille ville de Coblence. Dans l'ancien "Rathaus Monreal", la bière de Coblence est brassée de manière indépendante. L'origine est le privilège de la bière de l'électeur Lothar von Metternich en 1608, qui accorde à la ville de Coblence le droit de fabriquer sa propre bière. Après l'occupation française de Coblence en 1814, Johann Stahl reprend la brasserie.
 En 1884, Josef Thillmann achète l'Alte Brauhaus et fonde en 1885 la Bierbrauerei Josef Thillmann. Il déplace le site de production sur le site actuel le long de Königsbach, au sud de Coblence.
